--- a/PopfreSurvey/Cottonwood Survey (version 1).xlsx
+++ b/PopfreSurvey/Cottonwood Survey (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37388EDC-3CCA-475D-9450-0259A902C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08D4F07-6BA5-4F6C-A424-05D8E4C4B727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" firstSheet="6" activeTab="13" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" firstSheet="6" activeTab="6" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="MetaData" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="135">
   <si>
     <t>LB1</t>
   </si>
@@ -473,6 +472,12 @@
   <si>
     <t>Spring2024</t>
   </si>
+  <si>
+    <t>Spr</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
 </sst>
 </file>
 
@@ -679,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -698,6 +703,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
@@ -9555,16 +9561,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>54430</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>557894</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>13609</xdr:rowOff>
+      <xdr:rowOff>27216</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49386,7 +49392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383C6244-A801-4A06-8993-78CFC07FC091}">
   <dimension ref="A1:C327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N307" sqref="N307"/>
     </sheetView>
   </sheetViews>
@@ -75402,19 +75408,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B619D04-E133-4BF1-9395-0C4F8970C308}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB61" sqref="AB61"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>102023</v>
       </c>
@@ -75478,20 +75485,23 @@
       <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -75555,27 +75565,34 @@
       <c r="U2">
         <v>113</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="18">
+        <f>DATE(2023,10,1)</f>
+        <v>45200</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f>GEOMEAN(B6:K6)</f>
         <v>3.3680239158136192</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f>SUM(B2:K2)</f>
         <v>451</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>GEOMEAN(L6:U6)</f>
         <v>7.3718844909256172</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>SUM(L2:U2)</f>
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -75639,27 +75656,34 @@
       <c r="U3">
         <v>3.14</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="18">
+        <f>DATE(2024,6,1)</f>
+        <v>45444</v>
+      </c>
+      <c r="X3" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f>GEOMEAN(B15:K15)</f>
         <v>2.9973791895270216</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f>SUM(B11:K11)</f>
         <v>263</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f>GEOMEAN(L15:U15)</f>
         <v>6.8252267978561836</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f>SUM(L11:U11)</f>
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -75723,27 +75747,34 @@
       <c r="U4">
         <v>3.14</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4" s="18">
+        <f>DATE(2024,10,1)</f>
+        <v>45566</v>
+      </c>
+      <c r="X4" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f>GEOMEAN(C24:K24)</f>
         <v>2.0846503512577725</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f>SUM(B20:K20)</f>
         <v>306</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>GEOMEAN(L24:U24)</f>
         <v>1.9568612658034923</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f>SUM(L20:U20)</f>
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -75808,7 +75839,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -75873,7 +75904,7 @@
         <v>35.987261146496813</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -75938,7 +75969,7 @@
         <v>28.509474562347254</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -76003,7 +76034,7 @@
         <v>2.4908729060074632</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -76067,8 +76098,16 @@
       <c r="U9">
         <v>114.45575763254872</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X9">
+        <f>GEOMEAN(B6:K6)</f>
+        <v>3.3680239158136192</v>
+      </c>
+      <c r="Y9">
+        <f>GEOMEAN(L6:U6)</f>
+        <v>7.3718844909256172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>62024</v>
       </c>
@@ -76133,7 +76172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -76198,7 +76237,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -76263,7 +76302,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -76328,7 +76367,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -76392,8 +76431,17 @@
       <c r="U14">
         <v>0.28048780487804881</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC14">
+        <v>3.3680239158136192</v>
+      </c>
+      <c r="AD14">
+        <v>7.3718844909256172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -76457,8 +76505,22 @@
       <c r="U15">
         <v>47.452229299363054</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <f>GEOMEAN(B15:K15)</f>
+        <v>2.9973791895270216</v>
+      </c>
+      <c r="Y15">
+        <f>GEOMEAN(L15:U15)</f>
+        <v>6.8252267978561836</v>
+      </c>
+      <c r="AC15">
+        <v>2.9973791895270216</v>
+      </c>
+      <c r="AD15">
+        <v>6.8252267978561836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -76522,8 +76584,14 @@
       <c r="U16">
         <v>33.205305496347954</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC16">
+        <v>1.8633882863317039</v>
+      </c>
+      <c r="AD16">
+        <v>2.3224220968563674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -76588,7 +76656,7 @@
         <v>3.8280671657225191</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -76653,7 +76721,7 @@
         <v>86.741700338167135</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>102024</v>
       </c>
@@ -76718,7 +76786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -76783,7 +76851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -76848,7 +76916,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -76913,7 +76981,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -76978,7 +77046,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -77042,8 +77110,16 @@
       <c r="U24">
         <v>15.605095541401273</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <f>GEOMEAN(C24:J24)</f>
+        <v>1.8633882863317039</v>
+      </c>
+      <c r="Y24">
+        <f>GEOMEAN(M24:U24)</f>
+        <v>2.3224220968563674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -77108,7 +77184,7 @@
         <v>47.370588773556896</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -77173,7 +77249,7 @@
         <v>4.6881842091854287</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -77241,7 +77317,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="X2:X4 AA2:AA4 Z2:Z4 Y2:Y4" formulaRange="1"/>
+    <ignoredError sqref="Y2:Y3 AB2:AB4 AA2:AA4 Z2:Z4" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
